--- a/Aircrafts.xlsx
+++ b/Aircrafts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>rf56</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>RF12</t>
+  </si>
+  <si>
+    <t>RF32</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.88671875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="14.5546875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -468,13 +471,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>280.0</v>
+        <v>600.0</v>
       </c>
       <c r="C7" t="n">
-        <v>560.0</v>
+        <v>600.0</v>
       </c>
     </row>
   </sheetData>

--- a/Aircrafts.xlsx
+++ b/Aircrafts.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\IdeaProjects\Projects\unit3-project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\IdeaProjects\Projects\unit3-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB81CE-DD2C-441F-BFB8-8909180941F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9136A6DD-75DF-49D2-8B84-37AD57695152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>NO AIRCRAFT</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>PASSENGER CAPACITY</t>
+  </si>
+  <si>
+    <t>FULL TANKS FULL</t>
+  </si>
   <si>
     <t>rf56</t>
   </si>
@@ -40,21 +52,6 @@
   </si>
   <si>
     <t>RF52</t>
-  </si>
-  <si>
-    <t>MODEL</t>
-  </si>
-  <si>
-    <t>PASSENGER CAPACITY</t>
-  </si>
-  <si>
-    <t>FULL TANKS FULL</t>
-  </si>
-  <si>
-    <t>RF44</t>
-  </si>
-  <si>
-    <t>RF12</t>
   </si>
   <si>
     <t>RF32</t>
@@ -64,7 +61,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,93 +387,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E1" sqref="E1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="D2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>350</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>310</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>500</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>420</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>600</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>600.0</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
